--- a/flightpath stuff/flightphase.xlsx
+++ b/flightpath stuff/flightphase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakri\Developer\D3JS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jak/Developer/Data Vis/D3JS/flightpath stuff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9CFCC18A-A7EA-4464-9770-C3C8702E6792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D358088B-32D1-4348-961E-8E8FCE050AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="510" windowWidth="26250" windowHeight="20895"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flightphase" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -717,40 +717,40 @@
                 <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
+                    <c:v>LOCAL</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>PARKED</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>TAXI</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>TAKEOFF RUN</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>DEPARTURE</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>CLIMB</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>EN ROUTE</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>DESCENT</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
                     <c:v>APPROACH</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="9">
+                    <c:v>LANDING</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>LANDING ROLL</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
                     <c:v>ARRIVAL</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>CLIMB</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>DEPARTURE</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>DESCENT</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>EN ROUTE</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>LANDING</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>LANDING ROLL</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>LOCAL</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>PARKED</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>TAKEOFF RUN</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>TAXI</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -768,40 +768,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1123</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>912</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>870</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>912</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>414</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1123</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>10</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1075,40 +1075,40 @@
                 <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
+                    <c:v>LOCAL</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>PARKED</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>TAXI</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>TAKEOFF RUN</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>DEPARTURE</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>CLIMB</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>EN ROUTE</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>DESCENT</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
                     <c:v>APPROACH</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="9">
+                    <c:v>LANDING</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>LANDING ROLL</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
                     <c:v>ARRIVAL</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>CLIMB</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>DEPARTURE</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>DESCENT</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>EN ROUTE</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>LANDING</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>LANDING ROLL</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>LOCAL</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>PARKED</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>TAKEOFF RUN</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>TAXI</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -1126,40 +1126,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15412</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11711</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1289</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>787</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>22148</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11711</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>787</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1289</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>159</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>14564</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15412</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>237</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1432,40 +1432,40 @@
                 <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
+                    <c:v>LOCAL</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>PARKED</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>TAXI</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>TAKEOFF RUN</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>DEPARTURE</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>CLIMB</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>EN ROUTE</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>DESCENT</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
                     <c:v>APPROACH</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="9">
+                    <c:v>LANDING</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>LANDING ROLL</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
                     <c:v>ARRIVAL</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>CLIMB</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>DEPARTURE</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>DESCENT</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>EN ROUTE</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>LANDING</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>LANDING ROLL</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>LOCAL</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>PARKED</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>TAKEOFF RUN</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>TAXI</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -1483,40 +1483,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>858</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>825</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1898</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>825</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>1076</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>858</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>18</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1790,40 +1790,40 @@
                 <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
+                    <c:v>LOCAL</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>PARKED</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>TAXI</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>TAKEOFF RUN</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>DEPARTURE</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>CLIMB</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>EN ROUTE</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>DESCENT</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
                     <c:v>APPROACH</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="9">
+                    <c:v>LANDING</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>LANDING ROLL</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
                     <c:v>ARRIVAL</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>CLIMB</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>DEPARTURE</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>DESCENT</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>EN ROUTE</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>LANDING</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>LANDING ROLL</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>LOCAL</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>PARKED</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>TAKEOFF RUN</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>TAXI</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -1841,40 +1841,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1828</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4428</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1368</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1969</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>18805</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4428</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1969</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1368</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>3010</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1828</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>99</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4227,16 +4227,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>130175</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4263,16 +4263,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>492125</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4299,16 +4299,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>130175</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4335,16 +4335,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4668,16 +4668,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4688,404 +4692,405 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
         <v>3</v>
       </c>
-      <c r="C2">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
         <v>870</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C13">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>15412</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>11711</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>3</v>
       </c>
-      <c r="C14">
+      <c r="C22">
         <v>22148</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>14564</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>4</v>
       </c>
-      <c r="C15">
+      <c r="C25">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16">
-        <v>11711</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21">
-        <v>14564</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24">
-        <v>15412</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>16</v>
       </c>
       <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>3</v>
       </c>
-      <c r="C26">
+      <c r="C34">
         <v>1898</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>4</v>
       </c>
-      <c r="C27">
+      <c r="C37">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>17</v>
       </c>
       <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>4428</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
         <v>3</v>
       </c>
-      <c r="C38">
+      <c r="C46">
         <v>18805</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
         <v>4</v>
       </c>
-      <c r="C39">
+      <c r="C49">
         <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40">
-        <v>4428</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42">
-        <v>1969</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45">
-        <v>3010</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48">
-        <v>1828</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/flightpath stuff/flightphase.xlsx
+++ b/flightpath stuff/flightphase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jak/Developer/Data Vis/D3JS/flightpath stuff/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakri\Developer\D3JS\flightpath stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D358088B-32D1-4348-961E-8E8FCE050AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CA13A5-A57C-4217-ADA8-F4A8CE96AFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2370" yWindow="510" windowWidth="30600" windowHeight="20895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flightphase" sheetId="1" r:id="rId1"/>
@@ -4264,15 +4264,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>492125</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>377825</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>34925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4300,15 +4300,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4338,13 +4338,13 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>34925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4671,17 +4671,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z37" sqref="Z37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>14</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>3</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>14</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>13</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>15412</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>6</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>5</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>11711</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>8</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>7</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>3</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>22148</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>9</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>14564</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>4</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>12</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>14</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>13</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>6</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>5</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>8</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>7</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>3</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>9</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>10</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>4</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>12</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>14</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>13</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>6</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>5</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>4428</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>8</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>7</v>
       </c>
@@ -5056,7 +5056,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>3</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>18805</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>9</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>10</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>4</v>
       </c>
